--- a/physics/fjederkonstant.xlsx
+++ b/physics/fjederkonstant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ktsdk-my.sharepoint.com/personal/nick473a_edu_nextkbh_dk/Documents/node projects/SOP-project/physics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{65D100B1-2E2F-45BF-8A0D-C71902AC9EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A13DF1B8-CF53-4527-A2EB-7CE47863FFEF}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{65D100B1-2E2F-45BF-8A0D-C71902AC9EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABBBD5C1-1377-41E8-BBB8-1063D27C9FE7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D01E7BE3-D6F6-4378-BAE4-53E291F428CD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>fjeder mappings ved 13.5 cm</t>
   </si>
@@ -52,6 +52,57 @@
   </si>
   <si>
     <t>converted</t>
+  </si>
+  <si>
+    <t>bar længde</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>bar vægt</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>weight weight</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>camera angle</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>weight height</t>
+  </si>
+  <si>
+    <t>weight r</t>
+  </si>
+  <si>
+    <t>disc r</t>
+  </si>
+  <si>
+    <t>disc weight</t>
+  </si>
+  <si>
+    <t>ball weight</t>
+  </si>
+  <si>
+    <t>ball diameter</t>
+  </si>
+  <si>
+    <t>ring weight</t>
+  </si>
+  <si>
+    <t>ring dia</t>
   </si>
 </sst>
 </file>
@@ -3453,20 +3504,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09927A40-3AF2-4E28-9E3B-6CBD43151094}">
-  <dimension ref="A3:F25"/>
+  <dimension ref="A2:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>0.6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>0.128</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>1.5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3">
+        <v>10.8</v>
+      </c>
+      <c r="W3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3">
+        <v>270</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3">
+        <v>860</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3">
+        <v>14</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3">
+        <v>351</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3">
+        <v>10</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3477,7 +3638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3491,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -3505,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>35</v>
       </c>
@@ -3527,7 +3688,7 @@
         <v>-3.9149999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>45</v>
       </c>
@@ -3549,7 +3710,7 @@
         <v>-3.1050000000000005E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>55</v>
       </c>
@@ -3571,7 +3732,7 @@
         <v>-2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>65</v>
       </c>
@@ -3593,7 +3754,7 @@
         <v>-2.3625E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>75</v>
       </c>
@@ -3615,7 +3776,7 @@
         <v>-1.917E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>85</v>
       </c>
@@ -3637,7 +3798,7 @@
         <v>-1.6064999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>95</v>
       </c>
@@ -3659,7 +3820,7 @@
         <v>-1.2015E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>105</v>
       </c>
@@ -3681,7 +3842,7 @@
         <v>-9.1800000000000007E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>115</v>
       </c>
@@ -3697,7 +3858,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>125</v>
       </c>

--- a/physics/fjederkonstant.xlsx
+++ b/physics/fjederkonstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ktsdk-my.sharepoint.com/personal/nick473a_edu_nextkbh_dk/Documents/node projects/SOP-project/physics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{65D100B1-2E2F-45BF-8A0D-C71902AC9EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABBBD5C1-1377-41E8-BBB8-1063D27C9FE7}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{65D100B1-2E2F-45BF-8A0D-C71902AC9EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2F7848B-E94F-4A41-A88E-4D4EC2B95C14}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D01E7BE3-D6F6-4378-BAE4-53E291F428CD}"/>
+    <workbookView xWindow="38280" yWindow="7605" windowWidth="29040" windowHeight="15840" xr2:uid="{D01E7BE3-D6F6-4378-BAE4-53E291F428CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>fjeder mappings ved 13.5 cm</t>
   </si>
@@ -104,6 +104,9 @@
   <si>
     <t>ring dia</t>
   </si>
+  <si>
+    <t>~=</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +163,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -268,8 +271,44 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19237589581430739"/>
+                  <c:y val="-3.1110047919650802E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -600,7 +639,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1007,7 +1046,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3208,7 +3247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3506,8 +3545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09927A40-3AF2-4E28-9E3B-6CBD43151094}">
   <dimension ref="A2:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3731,6 +3770,9 @@
         <f>-D12*0.135</f>
         <v>-2.7000000000000003E-2</v>
       </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3753,6 +3795,12 @@
         <f>-D11*0.135</f>
         <v>-2.3625E-2</v>
       </c>
+      <c r="G10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3774,6 +3822,10 @@
       <c r="F11">
         <f>-D10*0.135</f>
         <v>-1.917E-2</v>
+      </c>
+      <c r="G11">
+        <f>G10*H10</f>
+        <v>0.29699999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">

--- a/physics/fjederkonstant.xlsx
+++ b/physics/fjederkonstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ktsdk-my.sharepoint.com/personal/nick473a_edu_nextkbh_dk/Documents/node projects/SOP-project/physics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{65D100B1-2E2F-45BF-8A0D-C71902AC9EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2F7848B-E94F-4A41-A88E-4D4EC2B95C14}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{65D100B1-2E2F-45BF-8A0D-C71902AC9EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20481493-1C89-4441-9F69-DF886E1887DF}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="7605" windowWidth="29040" windowHeight="15840" xr2:uid="{D01E7BE3-D6F6-4378-BAE4-53E291F428CD}"/>
   </bookViews>
@@ -671,7 +671,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>coil out</a:t>
+              <a:t>spring clockwise</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1078,7 +1078,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>coil in</a:t>
+              <a:t>spring counterclockwise</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3210,15 +3210,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>114299</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3546,7 +3546,7 @@
   <dimension ref="A2:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/physics/fjederkonstant.xlsx
+++ b/physics/fjederkonstant.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="76" documentId="8_{65D100B1-2E2F-45BF-8A0D-C71902AC9EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20481493-1C89-4441-9F69-DF886E1887DF}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="7605" windowWidth="29040" windowHeight="15840" xr2:uid="{D01E7BE3-D6F6-4378-BAE4-53E291F428CD}"/>
+    <workbookView minimized="1" xWindow="38745" yWindow="8055" windowWidth="28800" windowHeight="15435" xr2:uid="{D01E7BE3-D6F6-4378-BAE4-53E291F428CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3546,7 +3546,7 @@
   <dimension ref="A2:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
